--- a/アルバム一覧_単体テスト.xlsx
+++ b/アルバム一覧_単体テスト.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/tanntaitest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{116B13CA-06EB-417D-9555-FC6399ED6A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3258BB0-1080-47E2-86AB-45388B68FD40}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{116B13CA-06EB-417D-9555-FC6399ED6A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90737609-5D87-4F60-8A81-1C4CDA0B69F9}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="2070" windowWidth="16920" windowHeight="10340" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
   <sheets>
     <sheet name="アルバム一覧画面" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="46">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -241,13 +241,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アルバムをグリッド表示</t>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>新たに登録されたアルバムの情報が降順に並んでいるか。</t>
     <rPh sb="0" eb="1">
       <t>アラ</t>
@@ -336,13 +329,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アルバムの表示</t>
-    <rPh sb="5" eb="7">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>新たなアルバム情報が降順で並ぶ</t>
     <rPh sb="0" eb="1">
       <t>アラ</t>
@@ -360,6 +346,95 @@
   </si>
   <si>
     <t>album.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.アカウント権限「一般」でログインする</t>
+    <rPh sb="7" eb="9">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イッパン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「＋」が非表示</t>
+    <rPh sb="4" eb="7">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>異常系</t>
+    <rPh sb="0" eb="2">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$_SESSION['user']が存在しない場合、login.phpへリダイレクトされるか</t>
+    <rPh sb="18" eb="20">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login.phpにリダイレクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直打ちする</t>
+    <rPh sb="0" eb="2">
+      <t>チョクウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント権限「一般」の場合、アルバム登録ボタン「＋」が非表示となっているか</t>
+    <rPh sb="5" eb="7">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.メニューの「アルバム」を押す</t>
+    <rPh sb="14" eb="15">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ログインしない状態で、album.phpをURL</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -741,7 +816,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4B85BB95-A177-4323-9374-E62AECA09AA0}" name="テーブル2" displayName="テーブル2" ref="A7:I19" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4B85BB95-A177-4323-9374-E62AECA09AA0}" name="テーブル2" displayName="テーブル2" ref="A7:I17" totalsRowShown="0">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{FE3B6433-B2D2-49AE-8398-E424440CC4D9}" name="項目番号" dataDxfId="19"/>
     <tableColumn id="2" xr3:uid="{94A9CBD6-F56A-491E-8DAF-ACBE970046E3}" name="大項目" dataDxfId="18"/>
@@ -758,7 +833,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB457F1-4B3E-4D8B-868C-5A8485A7A4BA}" name="テーブル3" displayName="テーブル3" ref="A22:I25" headerRowCount="0" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB457F1-4B3E-4D8B-868C-5A8485A7A4BA}" name="テーブル3" displayName="テーブル3" ref="A20:I25" headerRowCount="0" totalsRowShown="0" headerRowDxfId="10">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{EE255D13-5044-4BC9-803B-B6202D1CDFB4}" name="項目番号" headerRowDxfId="9" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{5394309E-B36D-49F6-8FFA-FA4533603CFC}" name="大項目" headerRowDxfId="7"/>
@@ -1091,10 +1166,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" zoomScale="79" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="79" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1145,7 +1220,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3">
-        <v>45809</v>
+        <v>45990</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1194,13 +1269,17 @@
         <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="G8" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1209,7 +1288,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="4"/>
@@ -1217,20 +1296,28 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="G10" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1239,7 +1326,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1247,20 +1334,28 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="2">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="G12" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1269,7 +1364,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1278,7 +1373,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>9</v>
@@ -1288,13 +1383,17 @@
         <v>18</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="G14" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1303,7 +1402,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1312,7 +1411,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>9</v>
@@ -1322,13 +1421,17 @@
         <v>25</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="G16" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1337,7 +1440,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1346,7 +1449,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>9</v>
@@ -1356,13 +1459,17 @@
         <v>26</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="G18" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1371,7 +1478,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1380,7 +1487,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>9</v>
@@ -1390,13 +1497,17 @@
         <v>27</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="G20" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1405,7 +1516,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -1414,23 +1525,27 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="G22" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1439,12 +1554,50 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="2">
+        <v>9</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/アルバム一覧_単体テスト.xlsx
+++ b/アルバム一覧_単体テスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/tanntaitest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{116B13CA-06EB-417D-9555-FC6399ED6A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90737609-5D87-4F60-8A81-1C4CDA0B69F9}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{116B13CA-06EB-417D-9555-FC6399ED6A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3803272E-805E-4FB6-9DAE-42C5B253A0B0}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -431,10 +431,6 @@
     <rPh sb="9" eb="11">
       <t>ジョウタイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>×</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1541,10 +1537,10 @@
         <v>36</v>
       </c>
       <c r="G22" s="4">
-        <v>45992</v>
+        <v>45998</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="I22" s="2"/>
     </row>
